--- a/XurtepNominas/bin/Debug/Archivos/contadormarinos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/contadormarinos.xlsx
@@ -208,9 +208,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -445,14 +444,14 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -504,7 +503,7 @@
     <xf numFmtId="43" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Comma_2 SALARIOS" xfId="7"/>
@@ -832,8 +831,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/XurtepNominas/bin/Debug/Archivos/contadormarinos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/contadormarinos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Conceptos que se utilizan en el pago de la nómina del personal marino del ECO III</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>Comisión 2%</t>
+  </si>
+  <si>
+    <t>RETENCION 6%</t>
+  </si>
+  <si>
+    <t>XURTEP</t>
+  </si>
+  <si>
+    <t>RETENCIONES</t>
+  </si>
+  <si>
+    <t>Retencion 6%</t>
   </si>
 </sst>
 </file>
@@ -453,7 +465,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -504,6 +516,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Comma_2 SALARIOS" xfId="7"/>
@@ -829,10 +843,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A2:Q29"/>
+  <dimension ref="A2:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,21 +859,22 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -891,25 +906,34 @@
         <v>58</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -922,20 +946,26 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
-      <c r="O5" s="27">
-        <f>I5+J5+L5+M5+N5+K5</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="27">
-        <f>O5*16%</f>
-        <v>0</v>
-      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="27">
-        <f>O5+P5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+        <f>I5+J5+M5+N5+P5+K5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="27">
+        <f>Q5*16%</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="27">
+        <f>+(L5+O5+M5+P5)*6%</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="27">
+        <f>Q5+R5-S5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
@@ -964,21 +994,23 @@
       <c r="K6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
@@ -988,12 +1020,12 @@
       <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1009,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1024,9 +1056,9 @@
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="22"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>30</v>
       </c>
@@ -1041,9 +1073,9 @@
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T12" s="22"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>32</v>
       </c>
@@ -1059,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>34</v>
       </c>
@@ -1075,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
@@ -1091,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>38</v>
       </c>
@@ -1147,7 +1179,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="13" t="str">
-        <f>+N6</f>
+        <f>+P6</f>
         <v>⑪</v>
       </c>
     </row>
@@ -1159,7 +1191,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="13" t="str">
-        <f>+N6</f>
+        <f>+P6</f>
         <v>⑪</v>
       </c>
     </row>
@@ -1171,7 +1203,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="13" t="str">
-        <f>+N6</f>
+        <f>+P6</f>
         <v>⑪</v>
       </c>
     </row>
@@ -1183,7 +1215,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="13" t="str">
-        <f>+N6</f>
+        <f>+P6</f>
         <v>⑪</v>
       </c>
     </row>
@@ -1207,7 +1239,7 @@
         <v>53</v>
       </c>
       <c r="E24" s="23">
-        <f>L5+M5</f>
+        <f>M5+N5</f>
         <v>0</v>
       </c>
     </row>
@@ -1234,28 +1266,39 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="28">
+        <f>+S5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="24">
-        <f>E25+E26</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="22">
-        <f>E27-Q5</f>
-        <v>0</v>
-      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="24">
+        <f>E25+E26-E27</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="E29" s="22">
+        <f>E28-T5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>11</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B30" s="20" t="s">
         <v>56</v>
       </c>
     </row>

--- a/XurtepNominas/bin/Debug/Archivos/contadormarinos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/contadormarinos.xlsx
@@ -201,9 +201,6 @@
     <t>Sueldos</t>
   </si>
   <si>
-    <t>Comisión 2%</t>
-  </si>
-  <si>
     <t>RETENCION 6%</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>Retencion 6%</t>
+  </si>
+  <si>
+    <t>Comisión 4% y 3.5%</t>
   </si>
 </sst>
 </file>
@@ -845,8 +845,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <v>58</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>10</v>
@@ -915,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>12</v>
@@ -927,7 +927,7 @@
         <v>13</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>14</v>
@@ -1233,7 +1233,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>53</v>
@@ -1268,7 +1268,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="28">
